--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -349,7 +349,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="positive" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -405,7 +405,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +56,45 @@
   </si>
   <si>
     <t>der76adra@yahhham.com</t>
+  </si>
+  <si>
+    <t>karamazov@gtrma.com</t>
+  </si>
+  <si>
+    <t>hkurykakna@hotmail.com</t>
+  </si>
+  <si>
+    <t>hersta@fakemail.com</t>
+  </si>
+  <si>
+    <t>trendayulia@gmail.com</t>
+  </si>
+  <si>
+    <t>bristawerqu@mail.com</t>
+  </si>
+  <si>
+    <t>tersutylippi@postkaf.com</t>
+  </si>
+  <si>
+    <t>haverd.irenk@freemail.com</t>
+  </si>
+  <si>
+    <t>Tom12.Orrow5</t>
+  </si>
+  <si>
+    <t>gfdan123.</t>
+  </si>
+  <si>
+    <t>SDSD123hakan.</t>
+  </si>
+  <si>
+    <t>23Gtan123.</t>
+  </si>
+  <si>
+    <t>65?m12.Orrow4</t>
+  </si>
+  <si>
+    <t>09drsUR4735+</t>
   </si>
 </sst>
 </file>
@@ -346,10 +385,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -389,12 +428,75 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan\IdeaProjects\Java_Selenium_TestNG_Lesson\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan\IdeaProjects\Java_Selenium_TestNG_Lessons\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -79,29 +79,14 @@
     <t>haverd.irenk@freemail.com</t>
   </si>
   <si>
-    <t>Tom12.Orrow5</t>
-  </si>
-  <si>
-    <t>gfdan123.</t>
-  </si>
-  <si>
-    <t>SDSD123hakan.</t>
-  </si>
-  <si>
-    <t>23Gtan123.</t>
-  </si>
-  <si>
-    <t>65?m12.Orrow4</t>
-  </si>
-  <si>
-    <t>09drsUR4735+</t>
+    <t>lahex94555@mugadget.comSONN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,15 +114,6 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,12 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -385,18 +360,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,23 +380,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -433,11 +409,11 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -445,58 +421,69 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1"/>
     <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -508,13 +495,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/test/resources/userData.xlsx
+++ b/src/test/resources/userData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan\IdeaProjects\Java_Selenium_TestNG_Lessons\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan\IdeaProjects\Java_Selenium_TestNG_Lesson\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
